--- a/tables/comparison_Our_NBC_Library_NBC_corona.xlsx
+++ b/tables/comparison_Our_NBC_Library_NBC_corona.xlsx
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
